--- a/tests/data/pokemon_data.xlsx
+++ b/tests/data/pokemon_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nubiral\Challenge_Monnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nubiral\Challenge_Monnet\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C83469-E51D-4D7F-A980-02BAE8659877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE612C-9FA8-4F49-8B52-47A93F98B979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2508" windowWidth="17280" windowHeight="9420" xr2:uid="{84F1231F-6146-4E51-AA5A-5DDC7EDEF056}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{84F1231F-6146-4E51-AA5A-5DDC7EDEF056}"/>
   </bookViews>
   <sheets>
     <sheet name="GET pokemon" sheetId="1" r:id="rId1"/>
